--- a/mluca.xlsx
+++ b/mluca.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlcardoso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/845CA001AF2900FE/Investimentos/MLUCA Investimentos/2025.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029CC37D-A983-48CF-A8EE-466FECBDF4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{029CC37D-A983-48CF-A8EE-466FECBDF4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{976A7A7D-EAEA-4A86-B599-26F395534402}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{BFFC41A4-ACB3-413C-BBDC-4C8AF282F8BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFFC41A4-ACB3-413C-BBDC-4C8AF282F8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Mês</t>
   </si>
@@ -93,7 +93,7 @@
     <t>Proventos (avg)</t>
   </si>
   <si>
-    <t>GAP (risco)</t>
+    <t>GAP Alvo</t>
   </si>
   <si>
     <t>-</t>
@@ -109,10 +109,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +127,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,10 +168,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -176,11 +186,21 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,20 +533,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71290061-EDDE-41D8-9868-A15FA4303E50}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="19" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,12 +609,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45047</v>
       </c>
-      <c r="B2" s="3">
-        <v>100</v>
+      <c r="B2" s="6">
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -631,15 +655,15 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45078</v>
       </c>
-      <c r="B3" s="3">
-        <v>102.82040000000001</v>
+      <c r="B3" s="6">
+        <v>1.0282</v>
       </c>
       <c r="C3" s="5">
         <v>2.8199999999999999E-2</v>
@@ -680,15 +704,15 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45108</v>
       </c>
-      <c r="B4" s="3">
-        <v>104.78060000000001</v>
+      <c r="B4" s="6">
+        <v>1.0478000000000001</v>
       </c>
       <c r="C4" s="5">
         <v>1.9099999999999999E-2</v>
@@ -729,15 +753,15 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45139</v>
       </c>
-      <c r="B5" s="3">
-        <v>99.877600000000001</v>
+      <c r="B5" s="6">
+        <v>0.99880000000000002</v>
       </c>
       <c r="C5" s="5">
         <v>-4.6800000000000001E-2</v>
@@ -778,15 +802,15 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45170</v>
       </c>
-      <c r="B6" s="3">
-        <v>97.8386</v>
+      <c r="B6" s="6">
+        <v>0.97840000000000005</v>
       </c>
       <c r="C6" s="5">
         <v>-2.0400000000000001E-2</v>
@@ -807,13 +831,13 @@
         <v>-2.75E-2</v>
       </c>
       <c r="I6" s="5">
-        <v>9.7000000000000003E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>104.3227</v>
+        <v>104.423</v>
       </c>
       <c r="K6" s="5">
-        <v>4.3200000000000002E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
@@ -827,15 +851,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45200</v>
       </c>
-      <c r="B7" s="3">
-        <v>92.454400000000007</v>
+      <c r="B7" s="6">
+        <v>0.92449999999999999</v>
       </c>
       <c r="C7" s="5">
         <v>-5.5E-2</v>
@@ -856,13 +880,13 @@
         <v>-2.5700000000000001E-2</v>
       </c>
       <c r="I7" s="5">
-        <v>0.01</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J7" s="3">
-        <v>105.3634</v>
+        <v>105.41500000000001</v>
       </c>
       <c r="K7" s="5">
-        <v>5.3600000000000002E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -876,15 +900,15 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45231</v>
       </c>
-      <c r="B8" s="3">
-        <v>103.58669999999999</v>
+      <c r="B8" s="6">
+        <v>1.0359</v>
       </c>
       <c r="C8" s="5">
         <v>0.12039999999999999</v>
@@ -908,10 +932,10 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="J8" s="3">
-        <v>106.32850000000001</v>
+        <v>106.3806</v>
       </c>
       <c r="K8" s="5">
-        <v>6.3299999999999995E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
@@ -925,15 +949,15 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45261</v>
       </c>
-      <c r="B9" s="3">
-        <v>110.7864</v>
+      <c r="B9" s="6">
+        <v>1.1079000000000001</v>
       </c>
       <c r="C9" s="5">
         <v>6.9500000000000006E-2</v>
@@ -954,13 +978,13 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="I9" s="5">
-        <v>8.8999999999999999E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J9" s="3">
-        <v>107.2796</v>
+        <v>107.3381</v>
       </c>
       <c r="K9" s="5">
-        <v>7.2800000000000004E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>21</v>
@@ -974,15 +998,15 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45292</v>
       </c>
-      <c r="B10" s="3">
-        <v>102.7944</v>
+      <c r="B10" s="6">
+        <v>1.0279</v>
       </c>
       <c r="C10" s="5">
         <v>-7.2099999999999997E-2</v>
@@ -1003,13 +1027,13 @@
         <v>-2.4199999999999999E-2</v>
       </c>
       <c r="I10" s="5">
-        <v>0.01</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="J10" s="3">
-        <v>108.3489</v>
+        <v>108.3792</v>
       </c>
       <c r="K10" s="5">
-        <v>8.3500000000000005E-2</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
@@ -1023,15 +1047,15 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45323</v>
       </c>
-      <c r="B11" s="3">
-        <v>103.3986</v>
+      <c r="B11" s="6">
+        <v>1.034</v>
       </c>
       <c r="C11" s="5">
         <v>5.8999999999999999E-3</v>
@@ -1055,10 +1079,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J11" s="3">
-        <v>109.2159</v>
+        <v>109.2465</v>
       </c>
       <c r="K11" s="5">
-        <v>9.2200000000000004E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
@@ -1072,15 +1096,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45352</v>
       </c>
-      <c r="B12" s="3">
-        <v>106.30110000000001</v>
+      <c r="B12" s="6">
+        <v>1.0629999999999999</v>
       </c>
       <c r="C12" s="5">
         <v>2.81E-2</v>
@@ -1104,10 +1128,10 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="J12" s="3">
-        <v>110.12430000000001</v>
+        <v>110.1551</v>
       </c>
       <c r="K12" s="5">
-        <v>0.1012</v>
+        <v>0.1016</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>21</v>
@@ -1121,15 +1145,15 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45383</v>
       </c>
-      <c r="B13" s="3">
-        <v>100.50369999999999</v>
+      <c r="B13" s="6">
+        <v>1.0049999999999999</v>
       </c>
       <c r="C13" s="5">
         <v>-5.45E-2</v>
@@ -1153,10 +1177,10 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="J13" s="3">
-        <v>111.1015</v>
+        <v>111.1326</v>
       </c>
       <c r="K13" s="5">
-        <v>0.111</v>
+        <v>0.1113</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
@@ -1170,15 +1194,15 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45413</v>
       </c>
-      <c r="B14" s="3">
-        <v>99.066100000000006</v>
+      <c r="B14" s="6">
+        <v>0.99070000000000003</v>
       </c>
       <c r="C14" s="5">
         <v>-1.43E-2</v>
@@ -1202,10 +1226,10 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="J14" s="3">
-        <v>112.02630000000001</v>
+        <v>112.0577</v>
       </c>
       <c r="K14" s="5">
-        <v>0.1203</v>
+        <v>0.1206</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>21</v>
@@ -1219,15 +1243,15 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45444</v>
       </c>
-      <c r="B15" s="3">
-        <v>100.59220000000001</v>
+      <c r="B15" s="6">
+        <v>1.0059</v>
       </c>
       <c r="C15" s="5">
         <v>1.54E-2</v>
@@ -1251,10 +1275,10 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="J15" s="3">
-        <v>112.90940000000001</v>
+        <v>112.941</v>
       </c>
       <c r="K15" s="5">
-        <v>0.12909999999999999</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>21</v>
@@ -1268,15 +1292,15 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45474</v>
       </c>
-      <c r="B16" s="3">
-        <v>105.8877</v>
+      <c r="B16" s="6">
+        <v>1.0589</v>
       </c>
       <c r="C16" s="5">
         <v>5.2600000000000001E-2</v>
@@ -1300,10 +1324,10 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="J16" s="3">
-        <v>113.9336</v>
+        <v>113.96550000000001</v>
       </c>
       <c r="K16" s="5">
-        <v>0.13930000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>21</v>
@@ -1323,19 +1347,19 @@
       <c r="Q16" s="5">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="8">
         <v>7317.48</v>
       </c>
       <c r="S16" s="5">
         <v>0.37040000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45505</v>
       </c>
-      <c r="B17" s="3">
-        <v>109.8515</v>
+      <c r="B17" s="6">
+        <v>1.0985</v>
       </c>
       <c r="C17" s="5">
         <v>3.7400000000000003E-2</v>
@@ -1356,13 +1380,13 @@
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="I17" s="5">
-        <v>8.6999999999999994E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="J17" s="3">
-        <v>114.922</v>
+        <v>114.9</v>
       </c>
       <c r="K17" s="5">
-        <v>0.1492</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
@@ -1382,19 +1406,19 @@
       <c r="Q17" s="5">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="8">
         <v>7602.05</v>
       </c>
       <c r="S17" s="5">
         <v>0.35189999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45536</v>
       </c>
-      <c r="B18" s="3">
-        <v>108.2497</v>
+      <c r="B18" s="6">
+        <v>1.0825</v>
       </c>
       <c r="C18" s="5">
         <v>-1.46E-2</v>
@@ -1415,13 +1439,13 @@
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>8.3999999999999995E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="J18" s="3">
-        <v>115.8818</v>
+        <v>115.8077</v>
       </c>
       <c r="K18" s="5">
-        <v>0.1588</v>
+        <v>0.15809999999999999</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>21</v>
@@ -1441,19 +1465,19 @@
       <c r="Q18" s="5">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="8">
         <v>7492.8</v>
       </c>
       <c r="S18" s="5">
         <v>0.3392</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45566</v>
       </c>
-      <c r="B19" s="3">
-        <v>104.4833</v>
+      <c r="B19" s="6">
+        <v>1.0448</v>
       </c>
       <c r="C19" s="5">
         <v>-3.4799999999999998E-2</v>
@@ -1474,13 +1498,13 @@
         <v>-1.8800000000000001E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>9.2999999999999992E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="J19" s="3">
-        <v>116.9572</v>
+        <v>116.82680000000001</v>
       </c>
       <c r="K19" s="5">
-        <v>0.1696</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
@@ -1500,19 +1524,19 @@
       <c r="Q19" s="5">
         <v>6.83E-2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="8">
         <v>7240.86</v>
       </c>
       <c r="S19" s="5">
         <v>0.34420000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45597</v>
       </c>
-      <c r="B20" s="3">
-        <v>101.4246</v>
+      <c r="B20" s="6">
+        <v>1.0142</v>
       </c>
       <c r="C20" s="5">
         <v>-2.93E-2</v>
@@ -1536,10 +1560,10 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="J20" s="3">
-        <v>117.88120000000001</v>
+        <v>117.74979999999999</v>
       </c>
       <c r="K20" s="5">
-        <v>0.17879999999999999</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>21</v>
@@ -1559,19 +1583,19 @@
       <c r="Q20" s="5">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="8">
         <v>7034.91</v>
       </c>
       <c r="S20" s="5">
         <v>0.35659999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45627</v>
       </c>
-      <c r="B21" s="3">
-        <v>94.393199999999993</v>
+      <c r="B21" s="6">
+        <v>0.94389999999999996</v>
       </c>
       <c r="C21" s="5">
         <v>-6.93E-2</v>
@@ -1592,13 +1616,13 @@
         <v>-2.6499999999999999E-2</v>
       </c>
       <c r="I21" s="5">
-        <v>9.2999999999999992E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="J21" s="3">
-        <v>118.97750000000001</v>
+        <v>118.786</v>
       </c>
       <c r="K21" s="5">
-        <v>0.1898</v>
+        <v>0.18790000000000001</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
@@ -1618,19 +1642,19 @@
       <c r="Q21" s="5">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="8">
         <v>6578.83</v>
       </c>
       <c r="S21" s="5">
         <v>0.3674</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45658</v>
       </c>
-      <c r="B22" s="3">
-        <v>96.811000000000007</v>
+      <c r="B22" s="6">
+        <v>0.96809999999999996</v>
       </c>
       <c r="C22" s="5">
         <v>2.5600000000000001E-2</v>
@@ -1651,13 +1675,13 @@
         <v>-2.3E-2</v>
       </c>
       <c r="I22" s="5">
-        <v>1.01E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="J22" s="3">
-        <v>120.17910000000001</v>
+        <v>119.9263</v>
       </c>
       <c r="K22" s="5">
-        <v>0.20180000000000001</v>
+        <v>0.1993</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
@@ -1677,19 +1701,19 @@
       <c r="Q22" s="5">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="8">
         <v>6751.77</v>
       </c>
       <c r="S22" s="5">
         <v>0.3947</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45689</v>
       </c>
-      <c r="B23" s="3">
-        <v>93.997900000000001</v>
+      <c r="B23" s="6">
+        <v>0.94</v>
       </c>
       <c r="C23" s="5">
         <v>-2.9100000000000001E-2</v>
@@ -1710,13 +1734,13 @@
         <v>-2.5999999999999999E-3</v>
       </c>
       <c r="I23" s="5">
-        <v>9.9000000000000008E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="J23" s="3">
-        <v>121.3689</v>
+        <v>121.0416</v>
       </c>
       <c r="K23" s="5">
-        <v>0.2137</v>
+        <v>0.2104</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
@@ -1736,19 +1760,19 @@
       <c r="Q23" s="5">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="8">
         <v>6561.12</v>
       </c>
       <c r="S23" s="5">
         <v>0.38490000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45717</v>
       </c>
-      <c r="B24" s="3">
-        <v>100.23399999999999</v>
+      <c r="B24" s="6">
+        <v>1.0023</v>
       </c>
       <c r="C24" s="5">
         <v>6.6299999999999998E-2</v>
@@ -1769,13 +1793,13 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="I24" s="5">
-        <v>9.5999999999999992E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="J24" s="3">
-        <v>122.53400000000001</v>
+        <v>122.1431</v>
       </c>
       <c r="K24" s="5">
-        <v>0.2253</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>21</v>
@@ -1795,19 +1819,19 @@
       <c r="Q24" s="5">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="8">
         <v>7027.33</v>
       </c>
       <c r="S24" s="5">
         <v>0.39639999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45748</v>
       </c>
-      <c r="B25" s="3">
-        <v>104.7623</v>
+      <c r="B25" s="6">
+        <v>1.0476000000000001</v>
       </c>
       <c r="C25" s="5">
         <v>4.5199999999999997E-2</v>
@@ -1828,13 +1852,13 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="I25" s="5">
-        <v>1.06E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J25" s="3">
-        <v>123.8279</v>
+        <v>123.36450000000001</v>
       </c>
       <c r="K25" s="5">
-        <v>0.23830000000000001</v>
+        <v>0.2336</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>21</v>
@@ -1854,19 +1878,19 @@
       <c r="Q25" s="5">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="8">
         <v>7359.83</v>
       </c>
       <c r="S25" s="5">
         <v>0.37169999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45778</v>
       </c>
-      <c r="B26" s="3">
-        <v>107.99379999999999</v>
+      <c r="B26" s="6">
+        <v>1.0799000000000001</v>
       </c>
       <c r="C26" s="5">
         <v>3.0800000000000001E-2</v>
@@ -1887,13 +1911,13 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="I26" s="5">
-        <v>1.14E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="J26" s="3">
-        <v>125.23950000000001</v>
+        <v>124.7586</v>
       </c>
       <c r="K26" s="5">
-        <v>0.25240000000000001</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>21</v>
@@ -1913,19 +1937,19 @@
       <c r="Q26" s="5">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="8">
         <v>7594.08</v>
       </c>
       <c r="S26" s="5">
         <v>0.35570000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45809</v>
       </c>
-      <c r="B27" s="3">
-        <v>109.84699999999999</v>
+      <c r="B27" s="6">
+        <v>1.0985</v>
       </c>
       <c r="C27" s="5">
         <v>1.72E-2</v>
@@ -1946,13 +1970,13 @@
         <v>3.8E-3</v>
       </c>
       <c r="I27" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="J27" s="3">
-        <v>126.6172</v>
+        <v>126.0561</v>
       </c>
       <c r="K27" s="5">
-        <v>0.26619999999999999</v>
+        <v>0.2606</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>21</v>
@@ -1972,19 +1996,19 @@
       <c r="Q27" s="5">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="8">
         <v>7252.9</v>
       </c>
       <c r="S27" s="5">
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45839</v>
       </c>
-      <c r="B28" s="3">
-        <v>104.5839</v>
+      <c r="B28" s="6">
+        <v>1.0458000000000001</v>
       </c>
       <c r="C28" s="5">
         <v>-4.7899999999999998E-2</v>
@@ -2005,13 +2029,13 @@
         <v>-6.3E-3</v>
       </c>
       <c r="I28" s="5">
-        <v>1.2800000000000001E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="J28" s="3">
-        <v>128.2379</v>
+        <v>127.5939</v>
       </c>
       <c r="K28" s="5">
-        <v>0.28239999999999998</v>
+        <v>0.27589999999999998</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
@@ -2031,19 +2055,19 @@
       <c r="Q28" s="5">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="8">
         <v>7282.88</v>
       </c>
       <c r="S28" s="5">
         <v>0.3392</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45870</v>
       </c>
-      <c r="B29" s="3">
-        <v>111.56059999999999</v>
+      <c r="B29" s="6">
+        <v>1.1155999999999999</v>
       </c>
       <c r="C29" s="5">
         <v>6.6699999999999995E-2</v>
@@ -2064,13 +2088,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I29" s="5">
-        <v>9.4000000000000004E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J29" s="3">
-        <v>129.44329999999999</v>
+        <v>129.07400000000001</v>
       </c>
       <c r="K29" s="5">
-        <v>0.2944</v>
+        <v>0.29070000000000001</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>21</v>
@@ -2090,14 +2114,133 @@
       <c r="Q29" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="8">
         <v>8481.4</v>
       </c>
       <c r="S29" s="5">
         <v>0.35630000000000001</v>
       </c>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45901</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.167</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>146692</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3.73E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="H30" s="5">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>130.64869999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.30649999999999999</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="5">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="O30" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>7.22E-2</v>
+      </c>
+      <c r="R30" s="8">
+        <v>8204.6200000000008</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0.3589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45931</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1.1894</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="E31" s="3">
+        <v>149540</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="H31" s="5">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1.21E-2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>132.2296</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="5">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="O31" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="R31" s="8">
+        <v>7878.89</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0.32469999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mluca.xlsx
+++ b/mluca.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/845CA001AF2900FE/Investimentos/MLUCA Investimentos/2025.10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlcardoso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{029CC37D-A983-48CF-A8EE-466FECBDF4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{976A7A7D-EAEA-4A86-B599-26F395534402}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC63371-36E7-4811-B9ED-569CB32EB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFFC41A4-ACB3-413C-BBDC-4C8AF282F8BA}"/>
   </bookViews>
@@ -112,7 +112,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,19 +183,19 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,7 +536,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,732 +610,732 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45047</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="8">
+        <v>45077</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>108335</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>100</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>0</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="7"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45078</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B3" s="5">
         <v>1.0282</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="E3" s="3">
         <v>118087</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.09</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.09</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>-6.1800000000000001E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="J3" s="3">
         <v>101.072</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>6.9099999999999995E-2</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45108</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B4" s="5">
         <v>1.0478000000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E4" s="3">
         <v>121943</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>3.27E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.12559999999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>-1.3599999999999999E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="J4" s="3">
         <v>102.1555</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>1.44E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="7"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>45139</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.99880000000000002</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>-4.6800000000000001E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E5" s="3">
         <v>115742</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>-5.0900000000000001E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>1.14E-2</v>
       </c>
       <c r="J5" s="3">
         <v>103.3175</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>3.32E-2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>0.1157</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="7"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45170</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="8">
+        <v>45199</v>
+      </c>
+      <c r="B6" s="5">
         <v>0.97840000000000005</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>-2.0400000000000001E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-2.1600000000000001E-2</v>
       </c>
       <c r="E6" s="3">
         <v>116565</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>-2.75E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="J6" s="3">
         <v>104.423</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>3.04E-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.1052</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45200</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="8">
+        <v>45230</v>
+      </c>
+      <c r="B7" s="5">
         <v>0.92449999999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>-5.5E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>-7.5499999999999998E-2</v>
       </c>
       <c r="E7" s="3">
         <v>113144</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>-2.93E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>-2.5700000000000001E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="J7" s="3">
         <v>105.41500000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.1186</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45231</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="8">
+        <v>45260</v>
+      </c>
+      <c r="B8" s="5">
         <v>1.0359</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.12039999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="E8" s="3">
         <v>127331</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.12540000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.17530000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="J8" s="3">
         <v>106.3806</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>6.3799999999999996E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>0.2049</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45261</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="8">
+        <v>45291</v>
+      </c>
+      <c r="B9" s="5">
         <v>1.1079000000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.1079</v>
       </c>
       <c r="E9" s="3">
         <v>134185</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.23860000000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J9" s="3">
         <v>107.3381</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>0.20480000000000001</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="7"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45292</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="8">
+        <v>45322</v>
+      </c>
+      <c r="B10" s="5">
         <v>1.0279</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>-7.2099999999999997E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.7900000000000001E-2</v>
       </c>
       <c r="E10" s="3">
         <v>127752</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.1792</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>-2.4199999999999999E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="J10" s="3">
         <v>108.3792</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>0.21609999999999999</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="7"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45323</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="8">
+        <v>45351</v>
+      </c>
+      <c r="B11" s="5">
         <v>1.034</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E11" s="3">
         <v>129020</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.19089999999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J11" s="3">
         <v>109.2465</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>0.20369999999999999</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45352</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="8">
+        <v>45382</v>
+      </c>
+      <c r="B12" s="5">
         <v>1.0629999999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2.81E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>6.3E-2</v>
       </c>
       <c r="E12" s="3">
         <v>128106</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>-7.1000000000000004E-3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.1825</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="J12" s="3">
         <v>110.1551</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>0.1016</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>0.1948</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45383</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="A13" s="8">
+        <v>45412</v>
+      </c>
+      <c r="B13" s="5">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>-5.45E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13" s="3">
         <v>125924</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.16239999999999999</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="J13" s="3">
         <v>111.1326</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0.1113</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>0.1956</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45413</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="8">
+        <v>45443</v>
+      </c>
+      <c r="B14" s="5">
         <v>0.99070000000000003</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>-1.43E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-9.2999999999999992E-3</v>
       </c>
       <c r="E14" s="3">
         <v>122098</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>-3.04E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.127</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1.61E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="J14" s="3">
         <v>112.0577</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.1206</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>0.18790000000000001</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="7"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45444</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="8">
+        <v>45473</v>
+      </c>
+      <c r="B15" s="5">
         <v>1.0059</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1.54E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E15" s="3">
         <v>123907</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.14369999999999999</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="J15" s="3">
         <v>112.941</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>0.12939999999999999</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>0.18110000000000001</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45474</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="8">
+        <v>45504</v>
+      </c>
+      <c r="B16" s="5">
         <v>1.0589</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="E16" s="3">
         <v>127652</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.17829999999999999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>2.24E-2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="J16" s="3">
         <v>113.96550000000001</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>0.13969999999999999</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>5.21E-2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>0.1804</v>
       </c>
       <c r="O16" s="2">
@@ -1344,57 +1344,57 @@
       <c r="P16" s="2">
         <v>1.4</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="7">
         <v>7317.48</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>0.37040000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45505</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="8">
+        <v>45535</v>
+      </c>
+      <c r="B17" s="5">
         <v>1.0985</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E17" s="3">
         <v>136004</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>6.54E-2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.25540000000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="J17" s="3">
         <v>114.9</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>0.14899999999999999</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>0.17649999999999999</v>
       </c>
       <c r="O17" s="2">
@@ -1403,57 +1403,57 @@
       <c r="P17" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <v>7602.05</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <v>0.35189999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45536</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="8">
+        <v>45565</v>
+      </c>
+      <c r="B18" s="5">
         <v>1.0825</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>-1.46E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="E18" s="3">
         <v>131816</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>-3.0800000000000001E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.2167</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="J18" s="3">
         <v>115.8077</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>0.15809999999999999</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>0.17180000000000001</v>
       </c>
       <c r="O18" s="2">
@@ -1462,57 +1462,57 @@
       <c r="P18" s="2">
         <v>1.6</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>7492.8</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>0.3392</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45566</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="8">
+        <v>45596</v>
+      </c>
+      <c r="B19" s="5">
         <v>1.0448</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>-3.4799999999999998E-2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>4.48E-2</v>
       </c>
       <c r="E19" s="3">
         <v>129713</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>-1.6E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.1973</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>-1.8800000000000001E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="J19" s="3">
         <v>116.82680000000001</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>0.16830000000000001</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>0.17</v>
       </c>
       <c r="O19" s="2">
@@ -1521,57 +1521,57 @@
       <c r="P19" s="2">
         <v>1.5</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>6.83E-2</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <v>7240.86</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
         <v>0.34420000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45597</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="8">
+        <v>45626</v>
+      </c>
+      <c r="B20" s="5">
         <v>1.0142</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>-2.93E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="E20" s="3">
         <v>125668</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>-3.1199999999999999E-2</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.16</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>1.9E-3</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="J20" s="3">
         <v>117.74979999999999</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>0.17749999999999999</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>0.16719999999999999</v>
       </c>
       <c r="O20" s="2">
@@ -1580,57 +1580,57 @@
       <c r="P20" s="2">
         <v>1.3</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>7034.91</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
         <v>0.35659999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45627</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="8">
+        <v>45657</v>
+      </c>
+      <c r="B21" s="5">
         <v>0.94389999999999996</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>-6.93E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>-5.6099999999999997E-2</v>
       </c>
       <c r="E21" s="3">
         <v>120283</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>-4.2900000000000001E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.1103</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="J21" s="3">
         <v>118.786</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>0.18790000000000001</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>0.1719</v>
       </c>
       <c r="O21" s="2">
@@ -1639,57 +1639,57 @@
       <c r="P21" s="2">
         <v>1.2</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <v>6578.83</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
         <v>0.3674</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>45658</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="8">
+        <v>45688</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.96809999999999996</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>-3.1899999999999998E-2</v>
       </c>
       <c r="E22" s="3">
         <v>126135</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.1643</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>-2.3E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="J22" s="3">
         <v>119.9263</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>0.1993</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>0.16880000000000001</v>
       </c>
       <c r="O22" s="2">
@@ -1698,57 +1698,57 @@
       <c r="P22" s="2">
         <v>1.2</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <v>6751.77</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <v>0.3947</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>45689</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="8">
+        <v>45716</v>
+      </c>
+      <c r="B23" s="5">
         <v>0.94</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>-2.9100000000000001E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>-0.06</v>
       </c>
       <c r="E23" s="3">
         <v>122799</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>-2.64E-2</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>0.13350000000000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="J23" s="3">
         <v>121.0416</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>0.2104</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>0.1661</v>
       </c>
       <c r="O23" s="2">
@@ -1757,57 +1757,57 @@
       <c r="P23" s="2">
         <v>1.2</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <v>6561.12</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="4">
         <v>0.38490000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>45717</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="8">
+        <v>45747</v>
+      </c>
+      <c r="B24" s="5">
         <v>1.0023</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>2.3E-3</v>
       </c>
       <c r="E24" s="3">
         <v>130260</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>6.08E-2</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>0.2024</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="J24" s="3">
         <v>122.1431</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>0.22140000000000001</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <v>0.16950000000000001</v>
       </c>
       <c r="O24" s="2">
@@ -1816,57 +1816,57 @@
       <c r="P24" s="2">
         <v>1.3</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="4">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>7027.33</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="4">
         <v>0.39639999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>45748</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="8">
+        <v>45777</v>
+      </c>
+      <c r="B25" s="5">
         <v>1.0476000000000001</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="E25" s="3">
         <v>135067</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>0.24679999999999999</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>0.01</v>
       </c>
       <c r="J25" s="3">
         <v>123.36450000000001</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>0.2336</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>0.16869999999999999</v>
       </c>
       <c r="O25" s="2">
@@ -1875,57 +1875,57 @@
       <c r="P25" s="2">
         <v>1.4</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="7">
         <v>7359.83</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
         <v>0.37169999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45778</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="8">
+        <v>45808</v>
+      </c>
+      <c r="B26" s="5">
         <v>1.0799000000000001</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>7.9899999999999999E-2</v>
       </c>
       <c r="E26" s="3">
         <v>137027</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.26479999999999998</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="J26" s="3">
         <v>124.7586</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>0.24759999999999999</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>0.1663</v>
       </c>
       <c r="O26" s="2">
@@ -1934,57 +1934,57 @@
       <c r="P26" s="2">
         <v>1.5</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <v>7594.08</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="4">
         <v>0.35570000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>45809</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="8">
+        <v>45838</v>
+      </c>
+      <c r="B27" s="5">
         <v>1.0985</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>1.72E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E27" s="3">
         <v>138855</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>0.28170000000000001</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>3.8E-3</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>1.04E-2</v>
       </c>
       <c r="J27" s="3">
         <v>126.0561</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>0.2606</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>0.16309999999999999</v>
       </c>
       <c r="O27" s="2">
@@ -1993,57 +1993,57 @@
       <c r="P27" s="2">
         <v>1.4</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="7">
         <v>7252.9</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="4">
         <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>45839</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="8">
+        <v>45869</v>
+      </c>
+      <c r="B28" s="5">
         <v>1.0458000000000001</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>4.58E-2</v>
       </c>
       <c r="E28" s="3">
         <v>133071</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>-4.1700000000000001E-2</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>0.2283</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>-6.3E-3</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="J28" s="3">
         <v>127.5939</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>0.27589999999999998</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="4">
         <v>0.1638</v>
       </c>
       <c r="O28" s="2">
@@ -2052,57 +2052,57 @@
       <c r="P28" s="2">
         <v>1.4</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="7">
         <v>7282.88</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <v>0.3392</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>45870</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="8">
+        <v>45900</v>
+      </c>
+      <c r="B29" s="5">
         <v>1.1155999999999999</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>0.11559999999999999</v>
       </c>
       <c r="E29" s="3">
         <v>141422</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.3054</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="J29" s="3">
         <v>129.07400000000001</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>0.29070000000000001</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <v>0.1661</v>
       </c>
       <c r="O29" s="2">
@@ -2111,57 +2111,57 @@
       <c r="P29" s="2">
         <v>1.5</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <v>8481.4</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="4">
         <v>0.35630000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>45901</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="8">
+        <v>45930</v>
+      </c>
+      <c r="B30" s="5">
         <v>1.167</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0.16700000000000001</v>
       </c>
       <c r="E30" s="3">
         <v>146692</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>3.73E-2</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>0.35410000000000003</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="J30" s="3">
         <v>130.64869999999999</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>0.30649999999999999</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <v>0.16520000000000001</v>
       </c>
       <c r="O30" s="2">
@@ -2170,57 +2170,57 @@
       <c r="P30" s="2">
         <v>1.8</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="4">
         <v>7.22E-2</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="7">
         <v>8204.6200000000008</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="4">
         <v>0.3589</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>45931</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="A31" s="8">
+        <v>45961</v>
+      </c>
+      <c r="B31" s="5">
         <v>1.1894</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0.18940000000000001</v>
       </c>
       <c r="E31" s="3">
         <v>149540</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>0.38030000000000003</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>-2.0000000000000001E-4</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>1.21E-2</v>
       </c>
       <c r="J31" s="3">
         <v>132.2296</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>0.32229999999999998</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>0.16250000000000001</v>
       </c>
       <c r="O31" s="2">
@@ -2229,13 +2229,13 @@
       <c r="P31" s="2">
         <v>1.9</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="4">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="7">
         <v>7878.89</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="4">
         <v>0.32469999999999999</v>
       </c>
     </row>

--- a/mluca.xlsx
+++ b/mluca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlcardoso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC63371-36E7-4811-B9ED-569CB32EB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B47D47C-D692-4B70-9373-E291B5BD1B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFFC41A4-ACB3-413C-BBDC-4C8AF282F8BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFFC41A4-ACB3-413C-BBDC-4C8AF282F8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71290061-EDDE-41D8-9868-A15FA4303E50}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2197,22 +2197,22 @@
         <v>149540</v>
       </c>
       <c r="F31" s="4">
-        <v>1.9400000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="G31" s="4">
         <v>0.38030000000000003</v>
       </c>
       <c r="H31" s="4">
-        <v>-2.0000000000000001E-4</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="I31" s="4">
-        <v>1.21E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J31" s="3">
-        <v>132.2296</v>
+        <v>132.321</v>
       </c>
       <c r="K31" s="4">
-        <v>0.32229999999999998</v>
+        <v>0.32319999999999999</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
